--- a/dist/outputs/Renta-Estructurado.xlsx
+++ b/dist/outputs/Renta-Estructurado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Concepto</t>
   </si>
@@ -28,10 +28,19 @@
     <t>Razón Social</t>
   </si>
   <si>
+    <t>Total costos y gastos de nómina</t>
+  </si>
+  <si>
+    <t>SEGURIDAD IMPERIO LTDA.</t>
+  </si>
+  <si>
+    <t>Aportes al sistema de seguridad social</t>
+  </si>
+  <si>
+    <t>Aportes al SENA, ICBF, cajas de compensación</t>
+  </si>
+  <si>
     <t>Efectivo y equivalentes al efectivo</t>
-  </si>
-  <si>
-    <t>SEGURIDAD IMPERIO LTDA.</t>
   </si>
   <si>
     <t>Inversiones e instrumentos financieros derivados</t>
@@ -288,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -320,10 +329,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>459434000</v>
+        <v>5490109000</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2018</v>
@@ -337,10 +346,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>9665000</v>
+        <v>659465000</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2018</v>
@@ -354,10 +363,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>935790000</v>
+        <v>166548000</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2018</v>
@@ -371,10 +380,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>459434000</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>2018</v>
@@ -388,10 +397,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>9665000</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2018</v>
@@ -405,10 +414,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>935790000</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>2018</v>
@@ -422,10 +431,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>933615000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>2018</v>
@@ -439,10 +448,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>149190000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2018</v>
@@ -456,10 +465,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>2487694000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2018</v>
@@ -473,10 +482,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>1365966000</v>
+        <v>933615000</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2018</v>
@@ -490,10 +499,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>1121728000</v>
+        <v>149190000</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2018</v>
@@ -507,10 +516,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>7337948000</v>
+        <v>2487694000</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>2018</v>
@@ -524,10 +533,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>9607000</v>
+        <v>1365966000</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2018</v>
@@ -541,10 +550,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0</v>
+        <v>1121728000</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2018</v>
@@ -558,10 +567,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0</v>
+        <v>7337948000</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2018</v>
@@ -575,10 +584,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0</v>
+        <v>9607000</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2018</v>
@@ -592,10 +601,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>35950000</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2018</v>
@@ -609,10 +618,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>7383505000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2018</v>
@@ -626,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0</v>
@@ -643,10 +652,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0</v>
+        <v>35950000</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2018</v>
@@ -660,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0</v>
+        <v>7383505000</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2018</v>
@@ -677,10 +686,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>7383505000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2018</v>
@@ -694,10 +703,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>6510665000</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2018</v>
@@ -711,10 +720,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>759825000</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2018</v>
@@ -728,10 +737,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>40269000</v>
+        <v>7383505000</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2018</v>
@@ -745,10 +754,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>30323000</v>
+        <v>6510665000</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>2018</v>
@@ -762,10 +771,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0</v>
+        <v>759825000</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>2018</v>
@@ -779,10 +788,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>7341082000</v>
+        <v>40269000</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>2018</v>
@@ -796,10 +805,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0</v>
+        <v>30323000</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2018</v>
@@ -813,7 +822,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0</v>
@@ -830,10 +839,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0</v>
+        <v>7341082000</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>2018</v>
@@ -847,10 +856,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>42423000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>2018</v>
@@ -864,7 +873,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>0</v>
@@ -881,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0</v>
@@ -898,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>42423000</v>
@@ -915,10 +924,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>42749000</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>2018</v>
@@ -932,7 +941,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>0</v>
@@ -949,10 +958,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0</v>
+        <v>42423000</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>2018</v>
@@ -966,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>42749000</v>
@@ -983,7 +992,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>0</v>
@@ -1000,7 +1009,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>0</v>
@@ -1017,10 +1026,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0</v>
+        <v>42749000</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>2018</v>
@@ -1034,7 +1043,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>0</v>
@@ -1051,7 +1060,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>0</v>
@@ -1068,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>0</v>
@@ -1085,7 +1094,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>0</v>
@@ -1102,10 +1111,10 @@
         <v>52</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>14107000</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>2018</v>
@@ -1119,7 +1128,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>0</v>
@@ -1136,10 +1145,10 @@
         <v>54</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>14107000</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>2018</v>
@@ -1153,10 +1162,10 @@
         <v>55</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0</v>
+        <v>14107000</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>2018</v>
@@ -1170,7 +1179,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>0</v>
@@ -1187,10 +1196,10 @@
         <v>57</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0</v>
+        <v>14107000</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>2018</v>
@@ -1204,7 +1213,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>0</v>
@@ -1221,7 +1230,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>0</v>
@@ -1238,7 +1247,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>0</v>
@@ -1255,10 +1264,10 @@
         <v>61</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>14107000</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2018</v>
@@ -1272,7 +1281,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>0</v>
@@ -1289,7 +1298,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>0</v>
@@ -1306,10 +1315,10 @@
         <v>64</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0</v>
+        <v>14107000</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>2018</v>
@@ -1323,7 +1332,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>0</v>
@@ -1340,7 +1349,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>0</v>
@@ -1357,10 +1366,10 @@
         <v>67</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>59176000</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>2018</v>
@@ -1374,10 +1383,10 @@
         <v>68</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>21289000</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>2018</v>
@@ -1391,10 +1400,10 @@
         <v>69</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>80465000</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>2018</v>
@@ -1408,10 +1417,10 @@
         <v>70</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0</v>
+        <v>59176000</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>2018</v>
@@ -1425,10 +1434,10 @@
         <v>71</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0</v>
+        <v>21289000</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>2018</v>
@@ -1442,10 +1451,10 @@
         <v>72</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>0</v>
+        <v>80465000</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2018</v>
@@ -1459,7 +1468,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>0</v>
@@ -1476,15 +1485,66 @@
         <v>74</v>
       </c>
       <c r="B70" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C73" s="1" t="n">
         <v>66358000</v>
       </c>
-      <c r="D70" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D73" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>6</v>
       </c>
     </row>
